--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\UiPath\DetectieMarfa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\UiPath\UIPath-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0425BA8-A8AB-40B0-B979-949848894843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914D8F6-0A74-4D45-BEC5-DDE77CF6D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -399,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -711,6 +711,402 @@
         <v>5</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\UiPath\UIPath-Project-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facultate\APB\UIPath-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914D8F6-0A74-4D45-BEC5-DDE77CF6D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA5923-1D0A-40BE-9256-7F83B1837CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>DOVLEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALATA </t>
+  </si>
+  <si>
+    <t>Data Adaugare</t>
   </si>
 </sst>
 </file>
@@ -399,20 +405,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,64 +429,67 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" s="3"/>
     </row>
@@ -1019,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44905</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,6 +1115,31 @@
       </c>
       <c r="C88" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="2">
+        <v>500</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44936.877129629633</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facultate\APB\UIPath-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA5923-1D0A-40BE-9256-7F83B1837CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DFBF4-6570-4CEF-A079-ACDCA3E70E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="32">
   <si>
     <t>Data</t>
   </si>
@@ -85,6 +85,46 @@
   </si>
   <si>
     <t>Data Adaugare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOBODA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CEAPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100_x000D_
+15-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USTUROI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOVLEAC </t>
   </si>
 </sst>
 </file>
@@ -120,11 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,9 +448,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1182,161 @@
         <v>500</v>
       </c>
       <c r="D90" s="1">
-        <v>44936.877129629633</v>
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2">
+        <v>500</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44937.84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44937.84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44937.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44937.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44937.84</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facultate\APB\UIPath-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DFBF4-6570-4CEF-A079-ACDCA3E70E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4C9FC-80D4-4F5F-BA84-D0FC5CE80308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
   <si>
     <t>Data</t>
   </si>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <t xml:space="preserve"> DOVLEAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500_x000D_
+[13-11 </t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
@@ -1280,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>44937.84</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1294,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="1">
-        <v>44937.84</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1308,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="D99" s="1">
-        <v>44937.84</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1322,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="D100" s="1">
-        <v>44937.84</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,7 +1343,119 @@
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <v>44937.84</v>
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="1">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="1">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44947.518564814818</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44947.518564814818</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44947.518564814818</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44947.518564814818</v>
       </c>
     </row>
   </sheetData>
